--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Spp1-Itga9.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Spp1-Itga9.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.21764362749015</v>
+        <v>463.732605</v>
       </c>
       <c r="H2">
-        <v>4.21764362749015</v>
+        <v>1391.197815</v>
       </c>
       <c r="I2">
-        <v>0.007109888501373486</v>
+        <v>0.3632113435366598</v>
       </c>
       <c r="J2">
-        <v>0.007109888501373486</v>
+        <v>0.3632113435366598</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.32087666112309</v>
+        <v>1.752878</v>
       </c>
       <c r="N2">
-        <v>1.32087666112309</v>
+        <v>5.258634</v>
       </c>
       <c r="O2">
-        <v>0.1413715668889013</v>
+        <v>0.1377607590022273</v>
       </c>
       <c r="P2">
-        <v>0.1413715668889013</v>
+        <v>0.1377607590022273</v>
       </c>
       <c r="Q2">
-        <v>5.570987032486268</v>
+        <v>812.8666811871899</v>
       </c>
       <c r="R2">
-        <v>5.570987032486268</v>
+        <v>7315.80013068471</v>
       </c>
       <c r="S2">
-        <v>0.001005136077844552</v>
+        <v>0.05003627036382898</v>
       </c>
       <c r="T2">
-        <v>0.001005136077844552</v>
+        <v>0.05003627036382898</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.21764362749015</v>
+        <v>463.732605</v>
       </c>
       <c r="H3">
-        <v>4.21764362749015</v>
+        <v>1391.197815</v>
       </c>
       <c r="I3">
-        <v>0.007109888501373486</v>
+        <v>0.3632113435366598</v>
       </c>
       <c r="J3">
-        <v>0.007109888501373486</v>
+        <v>0.3632113435366598</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.98664895049035</v>
+        <v>3.076282333333333</v>
       </c>
       <c r="N3">
-        <v>2.98664895049035</v>
+        <v>9.228847</v>
       </c>
       <c r="O3">
-        <v>0.3196568266403543</v>
+        <v>0.2417686736584878</v>
       </c>
       <c r="P3">
-        <v>0.3196568266403543</v>
+        <v>0.2417686736584878</v>
       </c>
       <c r="Q3">
-        <v>12.59662091358577</v>
+        <v>1426.572420152145</v>
       </c>
       <c r="R3">
-        <v>12.59662091358577</v>
+        <v>12839.1517813693</v>
       </c>
       <c r="S3">
-        <v>0.002272724396115793</v>
+        <v>0.08781312478457561</v>
       </c>
       <c r="T3">
-        <v>0.002272724396115793</v>
+        <v>0.08781312478457562</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.21764362749015</v>
+        <v>463.732605</v>
       </c>
       <c r="H4">
-        <v>4.21764362749015</v>
+        <v>1391.197815</v>
       </c>
       <c r="I4">
-        <v>0.007109888501373486</v>
+        <v>0.3632113435366598</v>
       </c>
       <c r="J4">
-        <v>0.007109888501373486</v>
+        <v>0.3632113435366598</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.51479437242924</v>
+        <v>7.303088666666667</v>
       </c>
       <c r="N4">
-        <v>4.51479437242924</v>
+        <v>21.909266</v>
       </c>
       <c r="O4">
-        <v>0.4832120767951377</v>
+        <v>0.5739583917309499</v>
       </c>
       <c r="P4">
-        <v>0.4832120767951377</v>
+        <v>0.5739583917309499</v>
       </c>
       <c r="Q4">
-        <v>19.04179371430457</v>
+        <v>3386.68033193931</v>
       </c>
       <c r="R4">
-        <v>19.04179371430457</v>
+        <v>30480.12298745379</v>
       </c>
       <c r="S4">
-        <v>0.003435583988530552</v>
+        <v>0.2084681985947388</v>
       </c>
       <c r="T4">
-        <v>0.003435583988530552</v>
+        <v>0.2084681985947388</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.21764362749015</v>
+        <v>463.732605</v>
       </c>
       <c r="H5">
-        <v>4.21764362749015</v>
+        <v>1391.197815</v>
       </c>
       <c r="I5">
-        <v>0.007109888501373486</v>
+        <v>0.3632113435366598</v>
       </c>
       <c r="J5">
-        <v>0.007109888501373486</v>
+        <v>0.3632113435366598</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.520977895375448</v>
+        <v>0.5918243333333334</v>
       </c>
       <c r="N5">
-        <v>0.520977895375448</v>
+        <v>1.775473</v>
       </c>
       <c r="O5">
-        <v>0.05575952967560668</v>
+        <v>0.04651217560833507</v>
       </c>
       <c r="P5">
-        <v>0.05575952967560668</v>
+        <v>0.04651217560833507</v>
       </c>
       <c r="Q5">
-        <v>2.197299100493489</v>
+        <v>274.448239799055</v>
       </c>
       <c r="R5">
-        <v>2.197299100493489</v>
+        <v>2470.034158191495</v>
       </c>
       <c r="S5">
-        <v>0.0003964440388825896</v>
+        <v>0.01689374979351644</v>
       </c>
       <c r="T5">
-        <v>0.0003964440388825896</v>
+        <v>0.01689374979351644</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.1269934496523</v>
+        <v>12.24662533333333</v>
       </c>
       <c r="H6">
-        <v>12.1269934496523</v>
+        <v>36.739876</v>
       </c>
       <c r="I6">
-        <v>0.02044306700592992</v>
+        <v>0.009591978638444229</v>
       </c>
       <c r="J6">
-        <v>0.02044306700592992</v>
+        <v>0.009591978638444227</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.32087666112309</v>
+        <v>1.752878</v>
       </c>
       <c r="N6">
-        <v>1.32087666112309</v>
+        <v>5.258634</v>
       </c>
       <c r="O6">
-        <v>0.1413715668889013</v>
+        <v>0.1377607590022273</v>
       </c>
       <c r="P6">
-        <v>0.1413715668889013</v>
+        <v>0.1377607590022273</v>
       </c>
       <c r="Q6">
-        <v>16.01826261723831</v>
+        <v>21.46684012104267</v>
       </c>
       <c r="R6">
-        <v>16.01826261723831</v>
+        <v>193.201561089384</v>
       </c>
       <c r="S6">
-        <v>0.002890068414643114</v>
+        <v>0.001321398257565228</v>
       </c>
       <c r="T6">
-        <v>0.002890068414643114</v>
+        <v>0.001321398257565227</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.1269934496523</v>
+        <v>12.24662533333333</v>
       </c>
       <c r="H7">
-        <v>12.1269934496523</v>
+        <v>36.739876</v>
       </c>
       <c r="I7">
-        <v>0.02044306700592992</v>
+        <v>0.009591978638444229</v>
       </c>
       <c r="J7">
-        <v>0.02044306700592992</v>
+        <v>0.009591978638444227</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.98664895049035</v>
+        <v>3.076282333333333</v>
       </c>
       <c r="N7">
-        <v>2.98664895049035</v>
+        <v>9.228847</v>
       </c>
       <c r="O7">
-        <v>0.3196568266403543</v>
+        <v>0.2417686736584878</v>
       </c>
       <c r="P7">
-        <v>0.3196568266403543</v>
+        <v>0.2417686736584878</v>
       </c>
       <c r="Q7">
-        <v>36.21907225900739</v>
+        <v>37.67407715588578</v>
       </c>
       <c r="R7">
-        <v>36.21907225900739</v>
+        <v>339.066694402972</v>
       </c>
       <c r="S7">
-        <v>0.006534765925911686</v>
+        <v>0.002319039953177209</v>
       </c>
       <c r="T7">
-        <v>0.006534765925911686</v>
+        <v>0.002319039953177209</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>12.1269934496523</v>
+        <v>12.24662533333333</v>
       </c>
       <c r="H8">
-        <v>12.1269934496523</v>
+        <v>36.739876</v>
       </c>
       <c r="I8">
-        <v>0.02044306700592992</v>
+        <v>0.009591978638444229</v>
       </c>
       <c r="J8">
-        <v>0.02044306700592992</v>
+        <v>0.009591978638444227</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.51479437242924</v>
+        <v>7.303088666666667</v>
       </c>
       <c r="N8">
-        <v>4.51479437242924</v>
+        <v>21.909266</v>
       </c>
       <c r="O8">
-        <v>0.4832120767951377</v>
+        <v>0.5739583917309499</v>
       </c>
       <c r="P8">
-        <v>0.4832120767951377</v>
+        <v>0.5739583917309499</v>
       </c>
       <c r="Q8">
-        <v>54.75088178097646</v>
+        <v>89.43819067677956</v>
       </c>
       <c r="R8">
-        <v>54.75088178097646</v>
+        <v>804.943716091016</v>
       </c>
       <c r="S8">
-        <v>0.009878336863997554</v>
+        <v>0.005505396632839076</v>
       </c>
       <c r="T8">
-        <v>0.009878336863997554</v>
+        <v>0.005505396632839075</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>12.1269934496523</v>
+        <v>12.24662533333333</v>
       </c>
       <c r="H9">
-        <v>12.1269934496523</v>
+        <v>36.739876</v>
       </c>
       <c r="I9">
-        <v>0.02044306700592992</v>
+        <v>0.009591978638444229</v>
       </c>
       <c r="J9">
-        <v>0.02044306700592992</v>
+        <v>0.009591978638444227</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.520977895375448</v>
+        <v>0.5918243333333334</v>
       </c>
       <c r="N9">
-        <v>0.520977895375448</v>
+        <v>1.775473</v>
       </c>
       <c r="O9">
-        <v>0.05575952967560668</v>
+        <v>0.04651217560833507</v>
       </c>
       <c r="P9">
-        <v>0.05575952967560668</v>
+        <v>0.04651217560833507</v>
       </c>
       <c r="Q9">
-        <v>6.3178955246317</v>
+        <v>7.247850873483112</v>
       </c>
       <c r="R9">
-        <v>6.3178955246317</v>
+        <v>65.23065786134801</v>
       </c>
       <c r="S9">
-        <v>0.001139895801377565</v>
+        <v>0.0004461437948627167</v>
       </c>
       <c r="T9">
-        <v>0.001139895801377565</v>
+        <v>0.0004461437948627166</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>541.593394322089</v>
+        <v>689.7685036666667</v>
       </c>
       <c r="H10">
-        <v>541.593394322089</v>
+        <v>2069.305511</v>
       </c>
       <c r="I10">
-        <v>0.9129905195432374</v>
+        <v>0.5402504422695089</v>
       </c>
       <c r="J10">
-        <v>0.9129905195432374</v>
+        <v>0.5402504422695089</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.32087666112309</v>
+        <v>1.752878</v>
       </c>
       <c r="N10">
-        <v>1.32087666112309</v>
+        <v>5.258634</v>
       </c>
       <c r="O10">
-        <v>0.1413715668889013</v>
+        <v>0.1377607590022273</v>
       </c>
       <c r="P10">
-        <v>0.1413715668889013</v>
+        <v>0.1377607590022273</v>
       </c>
       <c r="Q10">
-        <v>715.378074378482</v>
+        <v>1209.080035170219</v>
       </c>
       <c r="R10">
-        <v>715.378074378482</v>
+        <v>10881.72031653197</v>
       </c>
       <c r="S10">
-        <v>0.1290709003025396</v>
+        <v>0.07442531097833652</v>
       </c>
       <c r="T10">
-        <v>0.1290709003025396</v>
+        <v>0.07442531097833652</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>541.593394322089</v>
+        <v>689.7685036666667</v>
       </c>
       <c r="H11">
-        <v>541.593394322089</v>
+        <v>2069.305511</v>
       </c>
       <c r="I11">
-        <v>0.9129905195432374</v>
+        <v>0.5402504422695089</v>
       </c>
       <c r="J11">
-        <v>0.9129905195432374</v>
+        <v>0.5402504422695089</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.98664895049035</v>
+        <v>3.076282333333333</v>
       </c>
       <c r="N11">
-        <v>2.98664895049035</v>
+        <v>9.228847</v>
       </c>
       <c r="O11">
-        <v>0.3196568266403543</v>
+        <v>0.2417686736584878</v>
       </c>
       <c r="P11">
-        <v>0.3196568266403543</v>
+        <v>0.2417686736584878</v>
       </c>
       <c r="Q11">
-        <v>1617.549342744574</v>
+        <v>2121.922661919535</v>
       </c>
       <c r="R11">
-        <v>1617.549342744574</v>
+        <v>19097.30395727582</v>
       </c>
       <c r="S11">
-        <v>0.2918436522299196</v>
+        <v>0.1306156328709106</v>
       </c>
       <c r="T11">
-        <v>0.2918436522299196</v>
+        <v>0.1306156328709106</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>541.593394322089</v>
+        <v>689.7685036666667</v>
       </c>
       <c r="H12">
-        <v>541.593394322089</v>
+        <v>2069.305511</v>
       </c>
       <c r="I12">
-        <v>0.9129905195432374</v>
+        <v>0.5402504422695089</v>
       </c>
       <c r="J12">
-        <v>0.9129905195432374</v>
+        <v>0.5402504422695089</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.51479437242924</v>
+        <v>7.303088666666667</v>
       </c>
       <c r="N12">
-        <v>4.51479437242924</v>
+        <v>21.909266</v>
       </c>
       <c r="O12">
-        <v>0.4832120767951377</v>
+        <v>0.5739583917309499</v>
       </c>
       <c r="P12">
-        <v>0.4832120767951377</v>
+        <v>0.5739583917309499</v>
       </c>
       <c r="Q12">
-        <v>2445.182808830218</v>
+        <v>5037.440541751658</v>
       </c>
       <c r="R12">
-        <v>2445.182808830218</v>
+        <v>45336.96487576493</v>
       </c>
       <c r="S12">
-        <v>0.4411680450427595</v>
+        <v>0.3100812749769417</v>
       </c>
       <c r="T12">
-        <v>0.4411680450427595</v>
+        <v>0.3100812749769417</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>541.593394322089</v>
+        <v>689.7685036666667</v>
       </c>
       <c r="H13">
-        <v>541.593394322089</v>
+        <v>2069.305511</v>
       </c>
       <c r="I13">
-        <v>0.9129905195432374</v>
+        <v>0.5402504422695089</v>
       </c>
       <c r="J13">
-        <v>0.9129905195432374</v>
+        <v>0.5402504422695089</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.520977895375448</v>
+        <v>0.5918243333333334</v>
       </c>
       <c r="N13">
-        <v>0.520977895375448</v>
+        <v>1.775473</v>
       </c>
       <c r="O13">
-        <v>0.05575952967560668</v>
+        <v>0.04651217560833507</v>
       </c>
       <c r="P13">
-        <v>0.05575952967560668</v>
+        <v>0.04651217560833507</v>
       </c>
       <c r="Q13">
-        <v>282.158186723167</v>
+        <v>408.2217848368559</v>
       </c>
       <c r="R13">
-        <v>282.158186723167</v>
+        <v>3673.996063531703</v>
       </c>
       <c r="S13">
-        <v>0.0509079219680187</v>
+        <v>0.02512822344332009</v>
       </c>
       <c r="T13">
-        <v>0.0509079219680187</v>
+        <v>0.02512822344332009</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>35.2700936895638</v>
+        <v>111.00921</v>
       </c>
       <c r="H14">
-        <v>35.2700936895638</v>
+        <v>333.02763</v>
       </c>
       <c r="I14">
-        <v>0.05945652494945908</v>
+        <v>0.08694623555538696</v>
       </c>
       <c r="J14">
-        <v>0.05945652494945908</v>
+        <v>0.08694623555538696</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.32087666112309</v>
+        <v>1.752878</v>
       </c>
       <c r="N14">
-        <v>1.32087666112309</v>
+        <v>5.258634</v>
       </c>
       <c r="O14">
-        <v>0.1413715668889013</v>
+        <v>0.1377607590022273</v>
       </c>
       <c r="P14">
-        <v>0.1413715668889013</v>
+        <v>0.1377607590022273</v>
       </c>
       <c r="Q14">
-        <v>46.5874435901696</v>
+        <v>194.58560200638</v>
       </c>
       <c r="R14">
-        <v>46.5874435901696</v>
+        <v>1751.27041805742</v>
       </c>
       <c r="S14">
-        <v>0.008405462093874086</v>
+        <v>0.01197777940249655</v>
       </c>
       <c r="T14">
-        <v>0.008405462093874086</v>
+        <v>0.01197777940249655</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>35.2700936895638</v>
+        <v>111.00921</v>
       </c>
       <c r="H15">
-        <v>35.2700936895638</v>
+        <v>333.02763</v>
       </c>
       <c r="I15">
-        <v>0.05945652494945908</v>
+        <v>0.08694623555538696</v>
       </c>
       <c r="J15">
-        <v>0.05945652494945908</v>
+        <v>0.08694623555538696</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.98664895049035</v>
+        <v>3.076282333333333</v>
       </c>
       <c r="N15">
-        <v>2.98664895049035</v>
+        <v>9.228847</v>
       </c>
       <c r="O15">
-        <v>0.3196568266403543</v>
+        <v>0.2417686736584878</v>
       </c>
       <c r="P15">
-        <v>0.3196568266403543</v>
+        <v>0.2417686736584878</v>
       </c>
       <c r="Q15">
-        <v>105.339388301632</v>
+        <v>341.49567156029</v>
       </c>
       <c r="R15">
-        <v>105.339388301632</v>
+        <v>3073.46104404261</v>
       </c>
       <c r="S15">
-        <v>0.01900568408840714</v>
+        <v>0.02102087604982436</v>
       </c>
       <c r="T15">
-        <v>0.01900568408840714</v>
+        <v>0.02102087604982436</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>35.2700936895638</v>
+        <v>111.00921</v>
       </c>
       <c r="H16">
-        <v>35.2700936895638</v>
+        <v>333.02763</v>
       </c>
       <c r="I16">
-        <v>0.05945652494945908</v>
+        <v>0.08694623555538696</v>
       </c>
       <c r="J16">
-        <v>0.05945652494945908</v>
+        <v>0.08694623555538696</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.51479437242924</v>
+        <v>7.303088666666667</v>
       </c>
       <c r="N16">
-        <v>4.51479437242924</v>
+        <v>21.909266</v>
       </c>
       <c r="O16">
-        <v>0.4832120767951377</v>
+        <v>0.5739583917309499</v>
       </c>
       <c r="P16">
-        <v>0.4832120767951377</v>
+        <v>0.5739583917309499</v>
       </c>
       <c r="Q16">
-        <v>159.2372205046947</v>
+        <v>810.71010344662</v>
       </c>
       <c r="R16">
-        <v>159.2372205046947</v>
+        <v>7296.39093101958</v>
       </c>
       <c r="S16">
-        <v>0.02873011089985004</v>
+        <v>0.04990352152643023</v>
       </c>
       <c r="T16">
-        <v>0.02873011089985004</v>
+        <v>0.04990352152643023</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>35.2700936895638</v>
+        <v>111.00921</v>
       </c>
       <c r="H17">
-        <v>35.2700936895638</v>
+        <v>333.02763</v>
       </c>
       <c r="I17">
-        <v>0.05945652494945908</v>
+        <v>0.08694623555538696</v>
       </c>
       <c r="J17">
-        <v>0.05945652494945908</v>
+        <v>0.08694623555538696</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.520977895375448</v>
+        <v>0.5918243333333334</v>
       </c>
       <c r="N17">
-        <v>0.520977895375448</v>
+        <v>1.775473</v>
       </c>
       <c r="O17">
-        <v>0.05575952967560668</v>
+        <v>0.04651217560833507</v>
       </c>
       <c r="P17">
-        <v>0.05575952967560668</v>
+        <v>0.04651217560833507</v>
       </c>
       <c r="Q17">
-        <v>18.37493918008382</v>
+        <v>65.69795170211</v>
       </c>
       <c r="R17">
-        <v>18.37493918008382</v>
+        <v>591.28156531899</v>
       </c>
       <c r="S17">
-        <v>0.003315267867327812</v>
+        <v>0.004044058576635825</v>
       </c>
       <c r="T17">
-        <v>0.003315267867327812</v>
+        <v>0.004044058576635825</v>
       </c>
     </row>
   </sheetData>
